--- a/biology/Botanique/Titanopsis/Titanopsis.xlsx
+++ b/biology/Botanique/Titanopsis/Titanopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes du genre Titanopsis appartiennent à la famille des Aizoaceae.
 Le nom « Titanopsis » vient du grec ancien « titanos » (=chaux) et « opsis » (=semblable). Le nom de l'espèce Titanopsis calcarea est donc un pléonasme.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des petites plantes succulentes en rosette pouvant atteindre 10 cm de haut. Elles ressemblent à une roche pour se protéger des herbivores, d'où leur nom. Les feuilles sans épines mesurent 3 cm au maximum. Leur extrémité s'élargit en forme de spatule. L'extrémité avec des bosselures plus ou moins grandes suivant les espèces accentue la ressemblance avec des roches et permet à la plante de se dissimuler dans l'environnement.
 Les fleurs de 2 cm de diamètre sont de couleur jaune ou orange et apparaissent à l'automne seulement lorsque l'ensoleillement a été suffisant.
@@ -545,7 +559,9 @@
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fait rare, la plante est calcicole (=elle apprécie les terrains calcaires)
 Les plantes demandent un sol bien drainé, une exposition bien ensoleillée. Des arrosages modérés en été et nuls en hiver.
@@ -579,7 +595,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titanopsis calcarea, l'espèce la plus connue
 Titanopsis crassipes
